--- a/output/ValueSet-EncounterLocationServiceClassOutpatient.xlsx
+++ b/output/ValueSet-EncounterLocationServiceClassOutpatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T17:23:47+07:00</t>
+    <t>2024-05-23T10:54:59+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EncounterLocationServiceClassOutpatient.xlsx
+++ b/output/ValueSet-EncounterLocationServiceClassOutpatient.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:54:59+07:00</t>
+    <t>2024-05-29T21:39:03+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Thomas Chaidir</t>
+    <t>SatuSehat</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>SatuSehat (https://satusehat.kemkes.go.id/, fhir@dto.kemkes.go.id)</t>
   </si>
   <si>
     <t>Description</t>

--- a/output/ValueSet-EncounterLocationServiceClassOutpatient.xlsx
+++ b/output/ValueSet-EncounterLocationServiceClassOutpatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T21:39:03+07:00</t>
+    <t>2024-05-30T10:41:30+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
